--- a/SHArC/SHArea/sfe_25_sharea_chsp.xlsx
+++ b/SHArC/SHArea/sfe_25_sharea_chsp.xlsx
@@ -397,7 +397,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -449,7 +449,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Discharge (cfs)</a:t>
+                  <a:t>Discharge (m³/s)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -504,7 +504,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -677,7 +677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" baseline="0" i="0" lang="en-US" strike="noStrike" sz="1000"/>
-                  <a:t>Discharge (cfs)</a:t>
+                  <a:t>Discharge (m³/s)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -724,7 +724,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -775,7 +775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Calculated Area (acres)</a:t>
+                  <a:t>Calculated Area (m²)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -830,7 +830,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1175,7 +1175,7 @@
   <dimension ref="B2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1190,7 +1190,7 @@
     <col customWidth="1" max="8" min="8" style="6" width="2.28515625"/>
     <col customWidth="1" max="9" min="9" style="6" width="12.42578125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="10"/>
-    <col customWidth="1" max="11" min="11" style="14" width="11.42578125"/>
+    <col customWidth="1" max="11" min="11" style="14" width="11.85546875"/>
     <col customWidth="1" max="16" min="12" style="6" width="9.140625"/>
     <col customWidth="1" max="16384" min="17" style="6" width="9.140625"/>
   </cols>
@@ -1238,14 +1238,14 @@
       </c>
       <c r="K2" s="12" t="inlineStr">
         <is>
-          <t>(ac/season)</t>
+          <t>(m²/season)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>(cfs)</t>
+          <t>(m³/s)</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>(ac per discharge)</t>
+          <t>(m² per discharge)</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>(ac·%exceed.)</t>
+          <t>(m²·%exceed.)</t>
         </is>
       </c>
     </row>
@@ -1291,9 +1291,7 @@
       <c r="E4" s="15" t="n">
         <v>0.006682258603407952</v>
       </c>
-      <c r="F4" s="15" t="n">
-        <v>0.7394628099173554</v>
-      </c>
+      <c r="F4" s="15" t="n"/>
       <c r="G4" s="15">
         <f>IF(NOT(ISBLANK(F4)),E4/100*F4, "")</f>
         <v/>
@@ -1316,9 +1314,7 @@
       <c r="E5" s="15" t="n">
         <v>0.0198921604391961</v>
       </c>
-      <c r="F5" s="15" t="n">
-        <v>0.5003213957759413</v>
-      </c>
+      <c r="F5" s="15" t="n"/>
       <c r="G5" s="15">
         <f>IF(NOT(ISBLANK(F5)),(E5-E4)/100*F5,"")</f>
         <v/>
@@ -1341,9 +1337,7 @@
       <c r="E6" s="15" t="n">
         <v>0.1233893940004288</v>
       </c>
-      <c r="F6" s="15" t="n">
-        <v>0.2983930211202938</v>
-      </c>
+      <c r="F6" s="15" t="n"/>
       <c r="G6" s="15">
         <f>IF(NOT(ISBLANK(F6)),(E6-E5)/100*F6,"")</f>
         <v/>
@@ -1366,9 +1360,7 @@
       <c r="E7" s="15" t="n">
         <v>0.2712415716333622</v>
       </c>
-      <c r="F7" s="15" t="n">
-        <v>0.1310376492194674</v>
-      </c>
+      <c r="F7" s="15" t="n"/>
       <c r="G7" s="15">
         <f>IF(NOT(ISBLANK(F7)),(E7-E6)/100*F7,"")</f>
         <v/>
@@ -1391,9 +1383,7 @@
       <c r="E8" s="15" t="n">
         <v>0.6970078409382847</v>
       </c>
-      <c r="F8" s="15" t="n">
-        <v>0.02199265381083563</v>
-      </c>
+      <c r="F8" s="15" t="n"/>
       <c r="G8" s="15">
         <f>IF(NOT(ISBLANK(F8)),(E8-E7)/100*F8,"")</f>
         <v/>
@@ -1416,9 +1406,7 @@
       <c r="E9" s="15" t="n">
         <v>2.270883065942192</v>
       </c>
-      <c r="F9" s="15" t="n">
-        <v>0.0008953168044077135</v>
-      </c>
+      <c r="F9" s="15" t="n"/>
       <c r="G9" s="15">
         <f>IF(NOT(ISBLANK(F9)),(E9-E8)/100*F9,"")</f>
         <v/>
@@ -1441,9 +1429,7 @@
       <c r="E10" s="15" t="n">
         <v>5.166166120804059</v>
       </c>
-      <c r="F10" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F10" s="15" t="n"/>
       <c r="G10" s="15">
         <f>IF(NOT(ISBLANK(F10)),(E10-E9)/100*F10,"")</f>
         <v/>
@@ -1466,9 +1452,7 @@
       <c r="E11" s="15" t="n">
         <v>19.0944139661015</v>
       </c>
-      <c r="F11" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F11" s="15" t="n"/>
       <c r="G11" s="15">
         <f>IF(NOT(ISBLANK(F11)),(E11-E10)/100*F11,"")</f>
         <v/>
@@ -1491,9 +1475,7 @@
       <c r="E12" s="15" t="n">
         <v>39.11572520578237</v>
       </c>
-      <c r="F12" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F12" s="15" t="n"/>
       <c r="G12" s="15">
         <f>IF(NOT(ISBLANK(F12)),(E12-E11)/100*F12,"")</f>
         <v/>
@@ -1516,9 +1498,7 @@
       <c r="E13" s="15" t="n">
         <v>73.06087088644198</v>
       </c>
-      <c r="F13" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="15" t="n"/>
       <c r="G13" s="15">
         <f>IF(NOT(ISBLANK(F13)),(E13-E12)/100*F13,"")</f>
         <v/>
@@ -1541,9 +1521,7 @@
       <c r="E14" s="15" t="n">
         <v>99.08150985735725</v>
       </c>
-      <c r="F14" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F14" s="15" t="n"/>
       <c r="G14" s="15">
         <f>IF(NOT(ISBLANK(F14)),(E14-E13)/100*F14,"")</f>
         <v/>
@@ -1566,9 +1544,7 @@
       <c r="E15" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="F15" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="15" t="n"/>
       <c r="G15" s="15">
         <f>IF(NOT(ISBLANK(F15)),(E15-E14)/100*F15,"")</f>
         <v/>
@@ -1591,9 +1567,7 @@
       <c r="E16" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="F16" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="F16" s="15" t="n"/>
       <c r="G16" s="15">
         <f>IF(NOT(ISBLANK(F16)),(E16-E15)/100*F16,"")</f>
         <v/>
